--- a/data/trans_orig/Q17B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Provincia-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1545304251817458</v>
+        <v>0.1518507202726456</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2532621462744584</v>
+        <v>0.2403311845595778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.226266181051149</v>
+        <v>0.220146397422053</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1751460218723205</v>
+        <v>0.1738592134628313</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2195360228355787</v>
+        <v>0.2247735716299863</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3617330082719956</v>
+        <v>0.3579690180591121</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3710391655575492</v>
+        <v>0.3673543831982136</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.229060841085162</v>
+        <v>0.2281924203449717</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2009443671389139</v>
+        <v>0.2049893469861819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.325264014836592</v>
+        <v>0.3317535058416253</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.319255590553954</v>
+        <v>0.3156334189279634</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2128534060329457</v>
+        <v>0.2116620006932587</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2648438910999405</v>
+        <v>0.2623233322963696</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4918461553438623</v>
+        <v>0.4716646582278767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4120547211019676</v>
+        <v>0.4027489131965734</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2721306037650683</v>
+        <v>0.2712883185482408</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3676254933886693</v>
+        <v>0.3723898173849384</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.566387575476877</v>
+        <v>0.5489821297232811</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5729075192270024</v>
+        <v>0.5856542991501188</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3166256632864724</v>
+        <v>0.3147307985585162</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2984039102360551</v>
+        <v>0.2981554058564307</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.479575192259081</v>
+        <v>0.492014543008835</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4611054876069972</v>
+        <v>0.4534638662455426</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2777912336889982</v>
+        <v>0.2808169322542794</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1928090873074266</v>
+        <v>0.1880341848266507</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2022008682753418</v>
+        <v>0.2030293342900938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.194794692986842</v>
+        <v>0.1943835809845258</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1721644455826512</v>
+        <v>0.1789550775725313</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2644166922052354</v>
+        <v>0.2621728340556883</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2884504472227458</v>
+        <v>0.2921573235141134</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3217991863143714</v>
+        <v>0.3215560670618889</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2193202213307092</v>
+        <v>0.2153999731111131</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2404364476036055</v>
+        <v>0.2457228231379276</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2590696844459515</v>
+        <v>0.2585420173774877</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2702527717933909</v>
+        <v>0.2679559944345282</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2094155018564261</v>
+        <v>0.2092836678692667</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3434466092990288</v>
+        <v>0.3262863531802168</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3117079285372728</v>
+        <v>0.3146875079028271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2809882365490974</v>
+        <v>0.2786742827965192</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3144598616142887</v>
+        <v>0.3226561754568351</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3687652935213638</v>
+        <v>0.3712453923485973</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3898522655093436</v>
+        <v>0.3906779259945428</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4380506041594549</v>
+        <v>0.4341706248291757</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3234694104501819</v>
+        <v>0.3126062035655034</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3295156474272708</v>
+        <v>0.3370663181703762</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3364524536264618</v>
+        <v>0.3340619905957593</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3442137551791308</v>
+        <v>0.3416219841353427</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2970875445207931</v>
+        <v>0.2987095549208914</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.3022088569315843</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2659156811669738</v>
+        <v>0.2659156811669737</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1350706210320392</v>
+        <v>0.1379638899411089</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2751871216169281</v>
+        <v>0.2714980315660527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2169984193262732</v>
+        <v>0.2114503094713207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1896993181583658</v>
+        <v>0.196239533305408</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2624362372206046</v>
+        <v>0.2593544940269457</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.454903313983156</v>
+        <v>0.4582196097969429</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2754825567552245</v>
+        <v>0.2789426094923905</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2388278400603624</v>
+        <v>0.236277409368827</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2103151073042653</v>
+        <v>0.2103343558772653</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3887036998891432</v>
+        <v>0.3885462945320276</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2641058104499097</v>
+        <v>0.2605749322372028</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2316877975227302</v>
+        <v>0.2293337017244708</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2261108011387254</v>
+        <v>0.2265204640809614</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4872324861254835</v>
+        <v>0.4858658563070496</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3425125796111684</v>
+        <v>0.3313656478423923</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3017136314083931</v>
+        <v>0.3105592783582599</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3710831071090182</v>
+        <v>0.3747205947866366</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.63994565674222</v>
+        <v>0.6317692704804048</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3950433990481917</v>
+        <v>0.3940850356546947</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3604937663535013</v>
+        <v>0.3547965738762063</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2851931723799487</v>
+        <v>0.2822100436338751</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.517199300704429</v>
+        <v>0.5152925878194446</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3495030352888978</v>
+        <v>0.3492990287765357</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3166237728646811</v>
+        <v>0.3084990682981901</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.3181511735964739</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2795739970068421</v>
+        <v>0.279573997006842</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.344412321191095</v>
@@ -1089,7 +1089,7 @@
         <v>0.4367152615742114</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3526078381777335</v>
+        <v>0.3526078381777336</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2516695712624677</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1168373230239025</v>
+        <v>0.1159490186835602</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2083184614949287</v>
+        <v>0.2097661545611225</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2565001131404964</v>
+        <v>0.2581078476168521</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2114397769423816</v>
+        <v>0.2138963427213957</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2917866844237756</v>
+        <v>0.295072099803144</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3381209443108881</v>
+        <v>0.3398953590921164</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3661830368645593</v>
+        <v>0.364995935474316</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2961264697139043</v>
+        <v>0.2990374628552653</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2178221239822166</v>
+        <v>0.2183196673199189</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2935781669407047</v>
+        <v>0.2949218982303713</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.329794377133442</v>
+        <v>0.3302410717705863</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2738274598907386</v>
+        <v>0.2762838981638224</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2036460119247439</v>
+        <v>0.2017764599113365</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3516969219857993</v>
+        <v>0.3448257443081217</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3987266546020153</v>
+        <v>0.3961833638252148</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3602292812979698</v>
+        <v>0.3538009374834098</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4044792408582207</v>
+        <v>0.4031209056440168</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4916467565504374</v>
+        <v>0.4945563224185411</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5238337647546327</v>
+        <v>0.5145399179151618</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4166168015067148</v>
+        <v>0.4209593387206869</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2888571205202677</v>
+        <v>0.2877627622460013</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.399703035867158</v>
+        <v>0.3963423620303008</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4293510054516473</v>
+        <v>0.4357411616771518</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3641465774766804</v>
+        <v>0.366308494320046</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2338323728271146</v>
+        <v>0.2341707874245003</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2726008772010325</v>
+        <v>0.2701262486494711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1035759173869482</v>
+        <v>0.1007795761765966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.065894045030088</v>
+        <v>0.06365989588312966</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4055441505471321</v>
+        <v>0.416168075192946</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4255270146534735</v>
+        <v>0.420783408229871</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1664966623114232</v>
+        <v>0.1673823972372227</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1097086289510932</v>
+        <v>0.1103715686673715</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3498798507103357</v>
+        <v>0.3446379200644709</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3736994409690345</v>
+        <v>0.3797372548639864</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1499108716455865</v>
+        <v>0.1491740635586921</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09921229948042593</v>
+        <v>0.09744948407788982</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4746333675210624</v>
+        <v>0.4901062211437853</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5533749874185193</v>
+        <v>0.5732758647296031</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2094811150776724</v>
+        <v>0.2126886111123224</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1419630907800759</v>
+        <v>0.1414299405953551</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6839877079261806</v>
+        <v>0.6898007178680881</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6136753154161608</v>
+        <v>0.6127857116238552</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2732966552425772</v>
+        <v>0.2795750605343288</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1846701198557492</v>
+        <v>0.1857758401519036</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5257738789617247</v>
+        <v>0.5355868418237235</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5487825845750818</v>
+        <v>0.5542065129552587</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2256949104785455</v>
+        <v>0.2251036788496635</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1502619190809315</v>
+        <v>0.1496673989481051</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1295868595435727</v>
+        <v>0.1302856020653711</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3115926352823545</v>
+        <v>0.3118587378949422</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5833882470775814</v>
+        <v>0.5713626083974196</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1698171333586057</v>
+        <v>0.1687492777888255</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2877938054657173</v>
+        <v>0.2890152319600175</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3997734212500664</v>
+        <v>0.4071010260943147</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8772108894773404</v>
+        <v>0.8923903908151993</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2270045194363142</v>
+        <v>0.2279467651714234</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2224768789111423</v>
+        <v>0.2276235922685091</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3819469058760065</v>
+        <v>0.3746514156114649</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.802689364453858</v>
+        <v>0.7892866551083423</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2099415488962519</v>
+        <v>0.2105270607367791</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2216945678314532</v>
+        <v>0.2261024524770392</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5073333997676495</v>
+        <v>0.503298048992481</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9816877203319754</v>
+        <v>0.9396254097431267</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2634010013978555</v>
+        <v>0.2669966940009323</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4959231970143981</v>
+        <v>0.50851566233207</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5600016803427403</v>
+        <v>0.5636649098930774</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.505550441047176</v>
+        <v>1.480693164552016</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3417827508632484</v>
+        <v>0.3464975400492759</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3281752577297945</v>
+        <v>0.3370817045508669</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5008673643193682</v>
+        <v>0.5090560265974342</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.160913127338787</v>
+        <v>1.160810891055137</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2859576950655084</v>
+        <v>0.2891992829375544</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>0.3096661233008673</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.4930842629458276</v>
+        <v>0.4930842629458277</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3418142259551831</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2332143777252917</v>
+        <v>0.2402675463231339</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2442353543890675</v>
+        <v>0.2419031784313564</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2584785679120376</v>
+        <v>0.261559486010461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2499057058370935</v>
+        <v>0.2545596636215032</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3354092645004131</v>
+        <v>0.3410228523861633</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3443622948033961</v>
+        <v>0.3443379590300072</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2676614134225926</v>
+        <v>0.2632867006147074</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4233084744316496</v>
+        <v>0.4306781753713059</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3000614779583884</v>
+        <v>0.2989975286633338</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3072623050691111</v>
+        <v>0.3063949451354009</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2747391919113701</v>
+        <v>0.2767623557054635</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3631749977527537</v>
+        <v>0.3537451913613227</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.384165721501278</v>
+        <v>0.3909205179146059</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.332799654260043</v>
+        <v>0.3282753822647285</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4333245863559428</v>
+        <v>0.4382525465154301</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3896450475657762</v>
+        <v>0.4004882917414659</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4822221498062595</v>
+        <v>0.490236505293333</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4569626285153981</v>
+        <v>0.4533863891908541</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3709195740420441</v>
+        <v>0.3689864499395641</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5782281711840808</v>
+        <v>0.5830051756732035</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4082940439154125</v>
+        <v>0.4047892607425505</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3769187758998039</v>
+        <v>0.3748101916512573</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3748925075116034</v>
+        <v>0.3715889491403263</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4647810335045758</v>
+        <v>0.461056193511058</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.3456932041998111</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3110047342374368</v>
+        <v>0.3110047342374369</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.3639533034008076</v>
@@ -1645,7 +1645,7 @@
         <v>0.3247731341232938</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.2714758206156834</v>
+        <v>0.2714758206156835</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2558417534268983</v>
+        <v>0.2578929857771212</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1993652269057307</v>
+        <v>0.2027306096245622</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2649229139103308</v>
+        <v>0.266268183260778</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1910954653440332</v>
+        <v>0.1973387782639972</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3738460775645064</v>
+        <v>0.3754759004703884</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3186281839495195</v>
+        <v>0.3146010597796676</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3040217222409389</v>
+        <v>0.3054239204614593</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2783899333595843</v>
+        <v>0.276838422560205</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3248676563693201</v>
+        <v>0.3299171943783132</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2737431180324126</v>
+        <v>0.268964467243237</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2967543333945926</v>
+        <v>0.2955176187499299</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2459637792517501</v>
+        <v>0.2449130299540403</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3535053654504482</v>
+        <v>0.3534363550712631</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2783973243477313</v>
+        <v>0.2814385423783055</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3469890237373006</v>
+        <v>0.3496849311087504</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2715321514711071</v>
+        <v>0.273503728330628</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4855890632273434</v>
+        <v>0.4832586226454423</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4938198304344017</v>
+        <v>0.4757352510247248</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3844379433167623</v>
+        <v>0.38884722808367</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3484282153870623</v>
+        <v>0.3501112057574454</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4006510990973611</v>
+        <v>0.4005201351524975</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3628781305611618</v>
+        <v>0.358911724015754</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3553341612104517</v>
+        <v>0.3518900642100351</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.298545464991349</v>
+        <v>0.2986928020193096</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2223508262355751</v>
+        <v>0.2247945128815714</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2693889954369457</v>
+        <v>0.2695694340333222</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2944426338998805</v>
+        <v>0.2942812570537492</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2229922592494844</v>
+        <v>0.2219275606773781</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.349380570992816</v>
+        <v>0.3488840077446005</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.388680487993786</v>
+        <v>0.3907303662003321</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3866222611553609</v>
+        <v>0.3867445570550246</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3091228736294823</v>
+        <v>0.3076235287115126</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2925043637280257</v>
+        <v>0.2938224964240619</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.3367263179059801</v>
+        <v>0.3375311644497682</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.3490276696376404</v>
+        <v>0.3469184945795845</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2719513437787776</v>
+        <v>0.2714795420397094</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2706638929588864</v>
+        <v>0.2698081180901004</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3177432287227003</v>
+        <v>0.3162802719795306</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3521187748867936</v>
+        <v>0.3494214841120754</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2656608419511788</v>
+        <v>0.2664636409785814</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3993892187775253</v>
+        <v>0.398031113045364</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4470047290488278</v>
+        <v>0.4437975952008312</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.450713340696379</v>
+        <v>0.4517997138827833</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.35342270208973</v>
+        <v>0.3536737395644183</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3277968356275481</v>
+        <v>0.3278481728783765</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3738905798963744</v>
+        <v>0.3742463302094531</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3928256171925845</v>
+        <v>0.3913707732952462</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.304122857192486</v>
+        <v>0.3023123328817635</v>
       </c>
     </row>
     <row r="31">
